--- a/Doo-Doc/Seccion # 6/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
+++ b/Doo-Doc/Seccion # 6/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a29f2ced7e34d5f/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{5CE024EF-2217-459D-81FA-9F36D63F35F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39639F7B-65AD-4F65-8DFB-EADA2E60A72E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9062E9-BD25-4C04-BFF5-AE324535C2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="3" r:id="rId1"/>
@@ -636,18 +636,141 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -666,75 +789,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -756,47 +816,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -813,37 +837,13 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,6 +865,61 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>516554</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>32229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462C13C8-8A2E-4063-1A54-C880CF2291D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="548640" y="38100"/>
+          <a:ext cx="7100234" cy="4749009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -882,7 +937,11 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3">
+        <row r="10">
+          <cell r="D10"/>
+        </row>
+      </sheetData>
       <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
@@ -1208,85 +1267,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0E5666-F6A5-49FF-B12A-1FE829F0A68B}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="41"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="5" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1303,12 +1362,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1316,145 +1376,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825409BB-6EDF-4233-9680-0DFD77A9FF39}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="69" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="69" t="s">
+      <c r="D6" s="44"/>
+    </row>
+    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="D7" s="44"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="70" t="s">
+    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="70" t="s">
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="D10" s="42"/>
+    </row>
+    <row r="11" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="16" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" location="'Administración conjunto residen'!A8" display="Conjunto residencial" xr:uid="{E03F3EA4-3CA3-4B3F-9D0C-49720165FE4D}"/>
@@ -1489,151 +1549,151 @@
       <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="33"/>
+    <col min="1" max="1" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="31" t="str">
+      <c r="B1" s="53" t="str">
         <f>Contextos!B5</f>
         <v>Administración conjunto residencial</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="35" t="str">
+      <c r="B2" s="55" t="str">
         <f>Contextos!D5</f>
         <v>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, y qué recursos ofrecen.</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="str">
+      <c r="B3" s="57" t="str">
         <f>Contextos!A5</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="62"/>
+      <c r="F5" s="63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="43" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="F7" s="63"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="49" t="str">
+      <c r="D8" s="25" t="str">
         <f>B8&amp;"-0001"</f>
         <v>Zona Comun-0001</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="49" t="str">
+      <c r="D9" s="25" t="str">
         <f>B9&amp;"-0002"</f>
         <v>Zona Comun-0002</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="31" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1668,154 +1728,154 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="33"/>
+    <col min="1" max="1" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="31" t="str">
+      <c r="B1" s="53" t="str">
         <f>Contextos!B8</f>
         <v>Gestión Residente</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="35" t="str">
+      <c r="B2" s="55" t="str">
         <f>Contextos!D8</f>
         <v>Contexto cuya motivación es encargarce de manejar la información de los residentes, incluidas sus identificaciones, contacto, y la relación entre el residente y su residencia dentro del conjunto.</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="str">
+      <c r="B3" s="57" t="str">
         <f>Contextos!A8</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="62"/>
+      <c r="F5" s="63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="43" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="F7" s="63"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="49" t="str">
+      <c r="D8" s="25" t="str">
         <f>B8&amp;"-0001"</f>
         <v>Residente-0001</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="49" t="str">
+      <c r="D9" s="25" t="str">
         <f>B9&amp;"-0001"</f>
         <v>Inmueble-0001</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="31" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1853,151 +1913,151 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="33"/>
+    <col min="1" max="1" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="31" t="str">
+      <c r="B1" s="53" t="str">
         <f>Contextos!B11</f>
         <v>Gestión Reserva</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="35" t="str">
+      <c r="B2" s="55" t="str">
         <f>Contextos!D11</f>
         <v>Contexto cuya intención enfocarse en la gestión del proceso de reservas de los recursos, incluyendo la disponibilidad de los recursos y las reservas que los residentes realizan.</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="str">
+      <c r="B3" s="57" t="str">
         <f>Contextos!A11</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="62"/>
+      <c r="F5" s="63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="43" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="F7" s="63"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="49" t="str">
+      <c r="D8" s="25" t="str">
         <f>B8&amp;"-0001"</f>
         <v>Reserva-0001</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="49" t="str">
+      <c r="D9" s="25" t="str">
         <f>B9&amp;"-0002"</f>
         <v>Reserva-0002</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="31" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2032,186 +2092,186 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="33" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="58" style="68" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="33"/>
+    <col min="1" max="1" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="58" style="36" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="56">
+      <c r="B1" s="64">
         <f>'[1]Configuración Apuestas'!D10</f>
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="57"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="65"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="41"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="61"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="60" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="61" t="s">
+      <c r="S3" s="70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="62"/>
-      <c r="S4" s="63"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="67"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="71"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Doo-Doc/Seccion # 6/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
+++ b/Doo-Doc/Seccion # 6/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9062E9-BD25-4C04-BFF5-AE324535C2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E839C4-6A66-4EF0-91E7-32FCCB7FC131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="3" r:id="rId1"/>
     <sheet name="ContextMapping" sheetId="1" r:id="rId2"/>
     <sheet name="Contextos" sheetId="2" r:id="rId3"/>
-    <sheet name="Administración conjunto residen" sheetId="4" r:id="rId4"/>
-    <sheet name="Gestión Residente" sheetId="5" r:id="rId5"/>
-    <sheet name="Gestión Reserva" sheetId="6" r:id="rId6"/>
-    <sheet name="CaracterizaciónContexto1" sheetId="7" r:id="rId7"/>
+    <sheet name="Conjunto residenciales" sheetId="4" r:id="rId4"/>
+    <sheet name="Residentes" sheetId="5" r:id="rId5"/>
+    <sheet name="Reservas" sheetId="6" r:id="rId6"/>
+    <sheet name="Reserva-0001" sheetId="8" r:id="rId7"/>
+    <sheet name="Reserva-0002" sheetId="9" r:id="rId8"/>
+    <sheet name="CaracterizaciónContexto1" sheetId="7" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="99">
   <si>
     <t>Problema/Dominio:</t>
   </si>
@@ -279,6 +281,69 @@
   </si>
   <si>
     <t>Requiere transformación</t>
+  </si>
+  <si>
+    <t>Residentes</t>
+  </si>
+  <si>
+    <t>identificador</t>
+  </si>
+  <si>
+    <t>Alfanumérico</t>
+  </si>
+  <si>
+    <t>residente</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la informacion del identificador de un residente en el contexto de Residentes.</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>identificadorResidente</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>nombreResidente</t>
+  </si>
+  <si>
+    <t>inmueble</t>
+  </si>
+  <si>
+    <t>zonaHabitada</t>
+  </si>
+  <si>
+    <t>identificadorInmueble</t>
+  </si>
+  <si>
+    <t>nombreInmueble</t>
+  </si>
+  <si>
+    <t>identificadorZonaHabitada</t>
+  </si>
+  <si>
+    <t>nombreZonaHabitada</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la informacion del identificador de un inmueble en el contexto de Residentes.</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la información del nombre de un residente en el contexto de Residentes asociado al residente con el identificador "identificadorResidente".</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la información del nombre de un inmueble en el contexto de Residentes asociado al residente con el identificador "identificadorInmueble".</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la información del nombre de un residente en el contexto de Residentes asociado al residente con el identificador "identificadorZonaHabitada".</t>
+  </si>
+  <si>
+    <t>Esta hoja es para hacer lo de la relacion del contesto Conjuntos residenciales con reservas</t>
   </si>
 </sst>
 </file>
@@ -331,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,8 +451,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -625,13 +702,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -750,10 +963,64 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -765,30 +1032,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -822,11 +1065,38 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,11 +1107,23 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -870,22 +1152,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>516554</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>32229</xdr:rowOff>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>58746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462C13C8-8A2E-4063-1A54-C880CF2291D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567C8E11-FEF2-8060-A5EE-AEF911777200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -907,8 +1189,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="548640" y="38100"/>
-          <a:ext cx="7100234" cy="4749009"/>
+          <a:off x="30480" y="60960"/>
+          <a:ext cx="7772400" cy="5301306"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1267,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0E5666-F6A5-49FF-B12A-1FE829F0A68B}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1279,10 +1561,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1362,7 +1644,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,29 +1674,29 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1431,64 +1713,64 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="62" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="62" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="60" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="60" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
@@ -1546,7 +1828,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,50 +1846,50 @@
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="53" t="str">
+      <c r="B1" s="63" t="str">
         <f>Contextos!B5</f>
         <v>Administración conjunto residencial</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="55" t="str">
+      <c r="B2" s="65" t="str">
         <f>Contextos!D5</f>
         <v>Contexto cuya motivación es Gestionar la estructura física y los recursos disponibles en cada conjunto residencial. Aquí se manejan los datos sobre qué conjuntos existen, dónde están ubicados, y qué recursos ofrecen.</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57" t="str">
+      <c r="B3" s="67" t="str">
         <f>Contextos!A5</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -1616,14 +1898,14 @@
       <c r="B5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="73" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1634,10 +1916,10 @@
       <c r="B6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
@@ -1646,14 +1928,14 @@
       <c r="B7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="63"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -1746,50 +2028,50 @@
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="53" t="str">
+      <c r="B1" s="63" t="str">
         <f>Contextos!B8</f>
         <v>Gestión Residente</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="55" t="str">
+      <c r="B2" s="65" t="str">
         <f>Contextos!D8</f>
         <v>Contexto cuya motivación es encargarce de manejar la información de los residentes, incluidas sus identificaciones, contacto, y la relación entre el residente y su residencia dentro del conjunto.</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57" t="str">
+      <c r="B3" s="67" t="str">
         <f>Contextos!A8</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -1798,14 +2080,14 @@
       <c r="B5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="73" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1816,10 +2098,10 @@
       <c r="B6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
@@ -1828,14 +2110,14 @@
       <c r="B7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="63"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -1909,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C088BE7-88A8-46E0-AF18-6F40B3F602F8}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,50 +2210,50 @@
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="53" t="str">
+      <c r="B1" s="63" t="str">
         <f>Contextos!B11</f>
         <v>Gestión Reserva</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="55" t="str">
+      <c r="B2" s="65" t="str">
         <f>Contextos!D11</f>
         <v>Contexto cuya intención enfocarse en la gestión del proceso de reservas de los recursos, incluyendo la disponibilidad de los recursos y las reservas que los residentes realizan.</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="57" t="str">
+      <c r="B3" s="67" t="str">
         <f>Contextos!A11</f>
         <v>Core/Básico</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -1980,14 +2262,14 @@
       <c r="B5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="73" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1998,10 +2280,10 @@
       <c r="B6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
@@ -2010,14 +2292,14 @@
       <c r="B7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="63"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -2088,11 +2370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA574C3-CD54-44A7-8A00-D1CB8315B9A2}">
-  <dimension ref="A1:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3888799-E6A1-4FAB-A09B-AF9FE652AF52}">
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2123,77 +2405,584 @@
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="64">
+      <c r="B1" s="83" t="str">
+        <f>Reservas!D8</f>
+        <v>Reserva-0001</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="84"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="71"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="89" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="88"/>
+      <c r="S4" s="90"/>
+    </row>
+    <row r="5" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="42">
+        <v>32</v>
+      </c>
+      <c r="F5" s="42">
+        <v>32</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="42">
+        <v>32</v>
+      </c>
+      <c r="N5" s="42">
+        <v>32</v>
+      </c>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="74"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="42">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42">
+        <v>50</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="42">
+        <v>1</v>
+      </c>
+      <c r="N6" s="42">
+        <v>50</v>
+      </c>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" s="81"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="74"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="81"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="74"/>
+      <c r="B8" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="44">
+        <v>32</v>
+      </c>
+      <c r="F8" s="44">
+        <v>32</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="44">
+        <v>32</v>
+      </c>
+      <c r="N8" s="44">
+        <v>32</v>
+      </c>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="S8" s="81"/>
+    </row>
+    <row r="9" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="74"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="44">
+        <v>1</v>
+      </c>
+      <c r="F9" s="44">
+        <v>50</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="44">
+        <v>1</v>
+      </c>
+      <c r="N9" s="44">
+        <v>50</v>
+      </c>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="S9" s="81"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="74"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="81"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="74"/>
+      <c r="B11" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="46">
+        <v>32</v>
+      </c>
+      <c r="F11" s="46">
+        <v>32</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="46">
+        <v>32</v>
+      </c>
+      <c r="N11" s="46">
+        <v>32</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="81"/>
+    </row>
+    <row r="12" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="75"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="48">
+        <v>1</v>
+      </c>
+      <c r="F12" s="48">
+        <v>50</v>
+      </c>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="48">
+        <v>1</v>
+      </c>
+      <c r="N12" s="48">
+        <v>50</v>
+      </c>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="S12" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="S5:S12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC2EBB7-5669-4BC7-8C4D-6FF94FADDE33}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA574C3-CD54-44A7-8A00-D1CB8315B9A2}">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="58" style="36" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="91">
         <f>'[1]Configuración Apuestas'!D10</f>
         <v>0</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="65"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="92"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="61"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="71"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="68" t="s">
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="70" t="s">
+      <c r="S3" s="89" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2249,8 +3038,8 @@
       <c r="Q4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="69"/>
-      <c r="S4" s="71"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="94"/>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32"/>

--- a/Doo-Doc/Seccion # 6/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
+++ b/Doo-Doc/Seccion # 6/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E839C4-6A66-4EF0-91E7-32FCCB7FC131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396E420-DA58-497B-AD70-AF84ADCA6AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="115">
   <si>
     <t>Problema/Dominio:</t>
   </si>
@@ -343,7 +343,55 @@
     <t>Atributo que contiene la información del nombre de un residente en el contexto de Residentes asociado al residente con el identificador "identificadorZonaHabitada".</t>
   </si>
   <si>
-    <t>Esta hoja es para hacer lo de la relacion del contesto Conjuntos residenciales con reservas</t>
+    <t>Conjuntos Residenciales</t>
+  </si>
+  <si>
+    <t>ConjuntoResidencial</t>
+  </si>
+  <si>
+    <t>TipoZonaComun</t>
+  </si>
+  <si>
+    <t>conjuntoResidencial</t>
+  </si>
+  <si>
+    <t>tipoZonaComun</t>
+  </si>
+  <si>
+    <t>identificadorConjuntoResidencial</t>
+  </si>
+  <si>
+    <t>nombreConjuntoResidencial</t>
+  </si>
+  <si>
+    <t>identificadorZonaComun</t>
+  </si>
+  <si>
+    <t>nombreZonaComun</t>
+  </si>
+  <si>
+    <t>identificadorTipoZonaComun</t>
+  </si>
+  <si>
+    <t>nombreTipoZonaComun</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la informacion del identificador de un conjunto residencial en el contexto de ConjuntosResidenciales.</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la información del nombre de un conjunto residencial en el contexto de ConjuntosResidenciales asociado a la zona comun con el identificador "identificadorConjutoResidencial".</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la informacion del identificador de una zona comun en el contexto de ConjuntosResidenciales.</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la información del nombre de una zona comun en el contexto de ConjuntosResidenciales asociado a la zona comun con el identificador "identificadorZonaComun".</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la informacion del identificador de un tipo de zona comun en el contexto de ConjuntosResidenciales.</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la información del nombre de un tipo de zona comun en el contexto de ConjuntosResidenciales asociado a la zona comun con el identificador "identificadorTipoZonaComun".</t>
   </si>
 </sst>
 </file>
@@ -844,7 +892,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1115,6 +1163,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1553,20 +1607,20 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="79.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="51"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1574,7 +1628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1582,7 +1636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1590,43 +1644,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -1647,7 +1701,7 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1662,15 +1716,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1734,7 @@
       <c r="C1" s="52"/>
       <c r="D1" s="53"/>
     </row>
-    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1690,7 +1744,7 @@
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
@@ -1698,7 +1752,7 @@
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1712,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
@@ -1726,7 +1780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
       <c r="B6" s="62"/>
       <c r="C6" s="37" t="s">
@@ -1734,7 +1788,7 @@
       </c>
       <c r="D6" s="62"/>
     </row>
-    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
       <c r="B7" s="62"/>
       <c r="C7" s="37" t="s">
@@ -1742,7 +1796,7 @@
       </c>
       <c r="D7" s="62"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>6</v>
       </c>
@@ -1756,7 +1810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="60"/>
       <c r="B9" s="60"/>
       <c r="C9" s="38" t="s">
@@ -1764,7 +1818,7 @@
       </c>
       <c r="D9" s="60"/>
     </row>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="60"/>
       <c r="B10" s="60"/>
       <c r="C10" s="38" t="s">
@@ -1772,7 +1826,7 @@
       </c>
       <c r="D10" s="60"/>
     </row>
-    <row r="11" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>6</v>
       </c>
@@ -1831,18 +1885,18 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="18"/>
+    <col min="7" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -1855,7 +1909,7 @@
       <c r="E1" s="63"/>
       <c r="F1" s="64"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
@@ -1868,7 +1922,7 @@
       <c r="E2" s="65"/>
       <c r="F2" s="66"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -1881,7 +1935,7 @@
       <c r="E3" s="67"/>
       <c r="F3" s="68"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>40</v>
       </c>
@@ -1891,7 +1945,7 @@
       <c r="E4" s="70"/>
       <c r="F4" s="71"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>41</v>
       </c>
@@ -1909,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
@@ -1921,7 +1975,7 @@
       <c r="E6" s="72"/>
       <c r="F6" s="73"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
@@ -1937,7 +1991,7 @@
       </c>
       <c r="F7" s="73"/>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>50</v>
       </c>
@@ -1958,7 +2012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
@@ -2013,18 +2067,18 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="18"/>
+    <col min="7" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -2037,7 +2091,7 @@
       <c r="E1" s="63"/>
       <c r="F1" s="64"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
@@ -2050,7 +2104,7 @@
       <c r="E2" s="65"/>
       <c r="F2" s="66"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -2063,7 +2117,7 @@
       <c r="E3" s="67"/>
       <c r="F3" s="68"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>40</v>
       </c>
@@ -2073,7 +2127,7 @@
       <c r="E4" s="70"/>
       <c r="F4" s="71"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>41</v>
       </c>
@@ -2091,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
@@ -2103,7 +2157,7 @@
       <c r="E6" s="72"/>
       <c r="F6" s="73"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
@@ -2119,7 +2173,7 @@
       </c>
       <c r="F7" s="73"/>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>30</v>
       </c>
@@ -2140,7 +2194,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>31</v>
       </c>
@@ -2191,22 +2245,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C088BE7-88A8-46E0-AF18-6F40B3F602F8}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="18"/>
+    <col min="7" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -2219,7 +2273,7 @@
       <c r="E1" s="63"/>
       <c r="F1" s="64"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
@@ -2232,7 +2286,7 @@
       <c r="E2" s="65"/>
       <c r="F2" s="66"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -2245,7 +2299,7 @@
       <c r="E3" s="67"/>
       <c r="F3" s="68"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>40</v>
       </c>
@@ -2255,7 +2309,7 @@
       <c r="E4" s="70"/>
       <c r="F4" s="71"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>41</v>
       </c>
@@ -2273,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
@@ -2285,7 +2339,7 @@
       <c r="E6" s="72"/>
       <c r="F6" s="73"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
@@ -2301,7 +2355,7 @@
       </c>
       <c r="F7" s="73"/>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>29</v>
       </c>
@@ -2322,7 +2376,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>59</v>
       </c>
@@ -2374,34 +2428,34 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="58" style="36" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="18"/>
+    <col min="19" max="19" width="17.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -2427,7 +2481,7 @@
       <c r="R1" s="83"/>
       <c r="S1" s="84"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -2448,7 +2502,7 @@
       <c r="R2" s="70"/>
       <c r="S2" s="71"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
         <v>65</v>
       </c>
@@ -2477,7 +2531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>38</v>
       </c>
@@ -2532,7 +2586,7 @@
       <c r="R4" s="88"/>
       <c r="S4" s="90"/>
     </row>
-    <row r="5" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
         <v>78</v>
       </c>
@@ -2579,7 +2633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="74"/>
       <c r="B6" s="76"/>
       <c r="C6" s="42" t="s">
@@ -2620,7 +2674,7 @@
       </c>
       <c r="S6" s="81"/>
     </row>
-    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="74"/>
       <c r="B7" s="76"/>
       <c r="C7" s="42" t="s">
@@ -2645,7 +2699,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="81"/>
     </row>
-    <row r="8" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="74"/>
       <c r="B8" s="77" t="s">
         <v>88</v>
@@ -2688,7 +2742,7 @@
       </c>
       <c r="S8" s="81"/>
     </row>
-    <row r="9" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="74"/>
       <c r="B9" s="77"/>
       <c r="C9" s="44" t="s">
@@ -2729,7 +2783,7 @@
       </c>
       <c r="S9" s="81"/>
     </row>
-    <row r="10" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74"/>
       <c r="B10" s="77"/>
       <c r="C10" s="44" t="s">
@@ -2754,7 +2808,7 @@
       <c r="R10" s="45"/>
       <c r="S10" s="81"/>
     </row>
-    <row r="11" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74"/>
       <c r="B11" s="78" t="s">
         <v>89</v>
@@ -2797,7 +2851,7 @@
       </c>
       <c r="S11" s="81"/>
     </row>
-    <row r="12" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="75"/>
       <c r="B12" s="79"/>
       <c r="C12" s="48" t="s">
@@ -2858,86 +2912,64 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC2EBB7-5669-4BC7-8C4D-6FF94FADDE33}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA574C3-CD54-44A7-8A00-D1CB8315B9A2}">
-  <dimension ref="A1:S5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="21" style="18" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="58" style="36" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="18"/>
+    <col min="19" max="19" width="17.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="91">
-        <f>'[1]Configuración Apuestas'!D10</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="92"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>64</v>
-      </c>
+      <c r="B1" s="83" t="str">
+        <f>Reservas!D9</f>
+        <v>Reserva-0002</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="84"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -2957,7 +2989,7 @@
       <c r="R2" s="70"/>
       <c r="S2" s="71"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
         <v>65</v>
       </c>
@@ -2986,7 +3018,496 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="88"/>
+      <c r="S4" s="90"/>
+    </row>
+    <row r="5" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="42">
+        <v>32</v>
+      </c>
+      <c r="F5" s="42">
+        <v>32</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="42">
+        <v>32</v>
+      </c>
+      <c r="N5" s="42">
+        <v>32</v>
+      </c>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" s="80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="91"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="42">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42">
+        <v>50</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="42">
+        <v>1</v>
+      </c>
+      <c r="N6" s="42">
+        <v>50</v>
+      </c>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="S6" s="81"/>
+    </row>
+    <row r="7" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="91"/>
+      <c r="B7" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="44">
+        <v>32</v>
+      </c>
+      <c r="F7" s="44">
+        <v>32</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="44">
+        <v>32</v>
+      </c>
+      <c r="N7" s="44">
+        <v>32</v>
+      </c>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="S7" s="81"/>
+    </row>
+    <row r="8" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="91"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="44">
+        <v>1</v>
+      </c>
+      <c r="F8" s="44">
+        <v>50</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="44">
+        <v>1</v>
+      </c>
+      <c r="N8" s="44">
+        <v>50</v>
+      </c>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" s="81"/>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="91"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="81"/>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="91"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="81"/>
+    </row>
+    <row r="11" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="91"/>
+      <c r="B11" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="46">
+        <v>32</v>
+      </c>
+      <c r="F11" s="46">
+        <v>32</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="46">
+        <v>32</v>
+      </c>
+      <c r="N11" s="46">
+        <v>32</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="S11" s="81"/>
+    </row>
+    <row r="12" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="92"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="48">
+        <v>1</v>
+      </c>
+      <c r="F12" s="48">
+        <v>50</v>
+      </c>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="48">
+        <v>1</v>
+      </c>
+      <c r="N12" s="48">
+        <v>50</v>
+      </c>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="S12" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="S5:S12"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA574C3-CD54-44A7-8A00-D1CB8315B9A2}">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="58" style="36" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="93">
+        <f>'[1]Configuración Apuestas'!D10</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="94"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="71"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="89" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>38</v>
       </c>
@@ -3038,10 +3559,10 @@
       <c r="Q4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="93"/>
-      <c r="S4" s="94"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R4" s="95"/>
+      <c r="S4" s="96"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>

--- a/Doo-Doc/Seccion # 6/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
+++ b/Doo-Doc/Seccion # 6/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396E420-DA58-497B-AD70-AF84ADCA6AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972DBCBE-D7F6-4344-8259-AFBF5FE9DF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="114">
   <si>
     <t>Problema/Dominio:</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Separate Ways</t>
   </si>
   <si>
-    <t>Administración conjunto residencial</t>
-  </si>
-  <si>
     <t>Zona Comun</t>
   </si>
   <si>
@@ -145,12 +142,6 @@
     <t>ZonaHabitada</t>
   </si>
   <si>
-    <t>Gestión Reserva</t>
-  </si>
-  <si>
-    <t>Gestión Residente</t>
-  </si>
-  <si>
     <t>Reserva</t>
   </si>
   <si>
@@ -392,6 +383,12 @@
   </si>
   <si>
     <t>Atributo que contiene la información del nombre de un tipo de zona comun en el contexto de ConjuntosResidenciales asociado a la zona comun con el identificador "identificadorTipoZonaComun".</t>
+  </si>
+  <si>
+    <t>Conjuntos residenciales</t>
+  </si>
+  <si>
+    <t>Reservas</t>
   </si>
 </sst>
 </file>
@@ -1113,33 +1110,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1162,6 +1132,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1206,22 +1203,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>58746</xdr:rowOff>
+      <xdr:colOff>210536</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567C8E11-FEF2-8060-A5EE-AEF911777200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4778A2CC-7D37-F19E-94A2-B72B66404A32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,8 +1240,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30480" y="60960"/>
-          <a:ext cx="7772400" cy="5301306"/>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="7068536" cy="4772691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1698,7 +1695,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825409BB-6EDF-4233-9680-0DFD77A9FF39}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1771,20 +1768,20 @@
         <v>6</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
       <c r="B6" s="62"/>
       <c r="C6" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="62"/>
     </row>
@@ -1792,7 +1789,7 @@
       <c r="A7" s="61"/>
       <c r="B7" s="62"/>
       <c r="C7" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="62"/>
     </row>
@@ -1801,20 +1798,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="60"/>
       <c r="B9" s="60"/>
       <c r="C9" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="60"/>
     </row>
@@ -1822,7 +1819,7 @@
       <c r="A10" s="60"/>
       <c r="B10" s="60"/>
       <c r="C10" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="60"/>
     </row>
@@ -1831,13 +1828,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1898,11 +1895,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="63" t="str">
         <f>Contextos!B5</f>
-        <v>Administración conjunto residencial</v>
+        <v>Conjuntos residenciales</v>
       </c>
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
@@ -1911,7 +1908,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="65" t="str">
         <f>Contextos!D5</f>
@@ -1937,7 +1934,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -1947,16 +1944,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="72" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>44</v>
       </c>
       <c r="E5" s="72"/>
       <c r="F5" s="73" t="s">
@@ -1965,10 +1962,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
@@ -1977,14 +1974,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>4</v>
@@ -1993,10 +1990,10 @@
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>20</v>
@@ -2006,18 +2003,18 @@
         <v>Zona Comun-0001</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>20</v>
@@ -2027,10 +2024,10 @@
         <v>Zona Comun-0002</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2080,11 +2077,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="63" t="str">
         <f>Contextos!B8</f>
-        <v>Gestión Residente</v>
+        <v>Residentes</v>
       </c>
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
@@ -2093,7 +2090,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="65" t="str">
         <f>Contextos!D8</f>
@@ -2119,7 +2116,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -2129,16 +2126,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="72" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>44</v>
       </c>
       <c r="E5" s="72"/>
       <c r="F5" s="73" t="s">
@@ -2147,10 +2144,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
@@ -2159,14 +2156,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>4</v>
@@ -2175,10 +2172,10 @@
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>20</v>
@@ -2188,18 +2185,18 @@
         <v>Residente-0001</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>20</v>
@@ -2209,10 +2206,10 @@
         <v>Inmueble-0001</v>
       </c>
       <c r="E9" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2262,11 +2259,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="63" t="str">
         <f>Contextos!B11</f>
-        <v>Gestión Reserva</v>
+        <v>Reservas</v>
       </c>
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
@@ -2275,7 +2272,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="65" t="str">
         <f>Contextos!D11</f>
@@ -2301,7 +2298,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -2311,16 +2308,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="72" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>44</v>
       </c>
       <c r="E5" s="72"/>
       <c r="F5" s="73" t="s">
@@ -2329,10 +2326,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
@@ -2341,14 +2338,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>4</v>
@@ -2357,10 +2354,10 @@
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>20</v>
@@ -2370,18 +2367,18 @@
         <v>Reserva-0001</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>20</v>
@@ -2391,10 +2388,10 @@
         <v>Reserva-0002</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2457,29 +2454,29 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="83" t="str">
+        <v>46</v>
+      </c>
+      <c r="B1" s="74" t="str">
         <f>Reservas!D8</f>
         <v>Reserva-0001</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="84"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
@@ -2503,101 +2500,101 @@
       <c r="S2" s="71"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="89" t="s">
-        <v>67</v>
+      <c r="A3" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="80" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="F4" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="G4" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="H4" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="I4" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="J4" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="K4" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="L4" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="79"/>
+      <c r="S4" s="81"/>
+    </row>
+    <row r="5" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="B5" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>77</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="88"/>
-      <c r="S4" s="90"/>
-    </row>
-    <row r="5" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>80</v>
       </c>
       <c r="E5" s="42">
         <v>32</v>
@@ -2609,13 +2606,13 @@
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
       <c r="J5" s="42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M5" s="42">
         <v>32</v>
@@ -2627,20 +2624,20 @@
       <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
       <c r="R5" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="S5" s="80" t="s">
-        <v>29</v>
+        <v>79</v>
+      </c>
+      <c r="S5" s="88" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="42">
         <v>1</v>
@@ -2652,13 +2649,13 @@
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M6" s="42">
         <v>1</v>
@@ -2670,18 +2667,18 @@
       <c r="P6" s="42"/>
       <c r="Q6" s="42"/>
       <c r="R6" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="S6" s="81"/>
+        <v>92</v>
+      </c>
+      <c r="S6" s="89"/>
     </row>
     <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
-      <c r="B7" s="76"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
@@ -2697,18 +2694,18 @@
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="43"/>
-      <c r="S7" s="81"/>
+      <c r="S7" s="89"/>
     </row>
     <row r="8" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
-      <c r="B8" s="77" t="s">
-        <v>88</v>
+      <c r="A8" s="82"/>
+      <c r="B8" s="85" t="s">
+        <v>85</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" s="44">
         <v>32</v>
@@ -2720,13 +2717,13 @@
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K8" s="44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M8" s="44">
         <v>32</v>
@@ -2738,18 +2735,18 @@
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="S8" s="81"/>
+        <v>91</v>
+      </c>
+      <c r="S8" s="89"/>
     </row>
     <row r="9" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E9" s="44">
         <v>1</v>
@@ -2761,13 +2758,13 @@
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
       <c r="J9" s="44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M9" s="44">
         <v>1</v>
@@ -2779,18 +2776,18 @@
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="S9" s="81"/>
+        <v>93</v>
+      </c>
+      <c r="S9" s="89"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="44" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
@@ -2806,18 +2803,18 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
-      <c r="S10" s="81"/>
+      <c r="S10" s="89"/>
     </row>
     <row r="11" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="78" t="s">
-        <v>89</v>
+      <c r="A11" s="82"/>
+      <c r="B11" s="86" t="s">
+        <v>86</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" s="46">
         <v>32</v>
@@ -2829,13 +2826,13 @@
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
       <c r="J11" s="46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L11" s="46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M11" s="46">
         <v>32</v>
@@ -2847,18 +2844,18 @@
       <c r="P11" s="46"/>
       <c r="Q11" s="46"/>
       <c r="R11" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="S11" s="81"/>
+        <v>79</v>
+      </c>
+      <c r="S11" s="89"/>
     </row>
     <row r="12" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E12" s="48">
         <v>1</v>
@@ -2870,13 +2867,13 @@
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
       <c r="J12" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K12" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L12" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M12" s="48">
         <v>1</v>
@@ -2888,23 +2885,23 @@
       <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
       <c r="R12" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="S12" s="82"/>
+        <v>94</v>
+      </c>
+      <c r="S12" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="S5:S12"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="S5:S12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2914,7 +2911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC2EBB7-5669-4BC7-8C4D-6FF94FADDE33}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -2944,29 +2941,29 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="83" t="str">
+        <v>46</v>
+      </c>
+      <c r="B1" s="74" t="str">
         <f>Reservas!D9</f>
         <v>Reserva-0002</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="84"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
@@ -2990,101 +2987,101 @@
       <c r="S2" s="71"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="89" t="s">
-        <v>67</v>
+      <c r="A3" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="80" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="F4" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="G4" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="H4" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="I4" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="J4" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="K4" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>77</v>
-      </c>
       <c r="L4" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="P4" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="Q4" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="88"/>
-      <c r="S4" s="90"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="81"/>
     </row>
     <row r="5" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>96</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5" s="42">
         <v>32</v>
@@ -3096,13 +3093,13 @@
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
       <c r="J5" s="42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M5" s="42">
         <v>32</v>
@@ -3114,20 +3111,20 @@
       <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
       <c r="R5" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="S5" s="80" t="s">
-        <v>59</v>
+        <v>106</v>
+      </c>
+      <c r="S5" s="88" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="91"/>
-      <c r="B6" s="76"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="42">
         <v>1</v>
@@ -3139,13 +3136,13 @@
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L6" s="42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M6" s="42">
         <v>1</v>
@@ -3157,20 +3154,20 @@
       <c r="P6" s="42"/>
       <c r="Q6" s="42"/>
       <c r="R6" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="S6" s="81"/>
+        <v>107</v>
+      </c>
+      <c r="S6" s="89"/>
     </row>
     <row r="7" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="91"/>
-      <c r="B7" s="77" t="s">
-        <v>59</v>
+      <c r="B7" s="85" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" s="44">
         <v>32</v>
@@ -3182,13 +3179,13 @@
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
       <c r="J7" s="44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M7" s="44">
         <v>32</v>
@@ -3200,18 +3197,18 @@
       <c r="P7" s="44"/>
       <c r="Q7" s="44"/>
       <c r="R7" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="S7" s="81"/>
+        <v>108</v>
+      </c>
+      <c r="S7" s="89"/>
     </row>
     <row r="8" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="91"/>
-      <c r="B8" s="77"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" s="44">
         <v>1</v>
@@ -3223,13 +3220,13 @@
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
       <c r="J8" s="44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K8" s="44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M8" s="44">
         <v>1</v>
@@ -3241,18 +3238,18 @@
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
       <c r="R8" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="S8" s="81"/>
+        <v>109</v>
+      </c>
+      <c r="S8" s="89"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="91"/>
-      <c r="B9" s="77"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
@@ -3268,16 +3265,16 @@
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="45"/>
-      <c r="S9" s="81"/>
+      <c r="S9" s="89"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91"/>
-      <c r="B10" s="77"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
@@ -3293,18 +3290,18 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
-      <c r="S10" s="81"/>
+      <c r="S10" s="89"/>
     </row>
     <row r="11" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="91"/>
-      <c r="B11" s="78" t="s">
-        <v>100</v>
+      <c r="B11" s="86" t="s">
+        <v>97</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" s="46">
         <v>32</v>
@@ -3316,13 +3313,13 @@
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
       <c r="J11" s="46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L11" s="46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M11" s="46">
         <v>32</v>
@@ -3334,18 +3331,18 @@
       <c r="P11" s="46"/>
       <c r="Q11" s="46"/>
       <c r="R11" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="S11" s="81"/>
+        <v>110</v>
+      </c>
+      <c r="S11" s="89"/>
     </row>
     <row r="12" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="92"/>
-      <c r="B12" s="79"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E12" s="48">
         <v>1</v>
@@ -3357,13 +3354,13 @@
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
       <c r="J12" s="48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K12" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L12" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M12" s="48">
         <v>1</v>
@@ -3375,23 +3372,23 @@
       <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
       <c r="R12" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="S12" s="82"/>
+        <v>111</v>
+      </c>
+      <c r="S12" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="S5:S12"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="S5:S12"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3431,7 +3428,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="93">
         <f>'[1]Configuración Apuestas'!D10</f>
@@ -3457,7 +3454,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -3479,85 +3476,85 @@
       <c r="S2" s="71"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="89" t="s">
-        <v>67</v>
+      <c r="A3" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="80" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="I4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="J4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="K4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>77</v>
-      </c>
       <c r="L4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="P4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="Q4" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="R4" s="95"/>
       <c r="S4" s="96"/>

--- a/Doo-Doc/Seccion # 6/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
+++ b/Doo-Doc/Seccion # 6/Modelo de dominio anémico de contextos-VictusResidencias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Seccion # 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Seccion # 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396E420-DA58-497B-AD70-AF84ADCA6AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3396E420-DA58-497B-AD70-AF84ADCA6AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14BFE430-036A-45C0-BB3A-F2A94696FC0E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{082AFB46-52C9-4E4C-AE4E-19443AA1B53B}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="3" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="Reservas" sheetId="6" r:id="rId6"/>
     <sheet name="Reserva-0001" sheetId="8" r:id="rId7"/>
     <sheet name="Reserva-0002" sheetId="9" r:id="rId8"/>
-    <sheet name="CaracterizaciónContexto1" sheetId="7" r:id="rId9"/>
+    <sheet name="Residente-0001" sheetId="10" r:id="rId9"/>
+    <sheet name="CaracterizaciónContexto1" sheetId="7" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="115">
   <si>
     <t>Problema/Dominio:</t>
   </si>
@@ -1113,6 +1114,30 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1138,30 +1163,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1607,20 +1608,20 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="79.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="51"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1644,43 +1645,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -1688,6 +1689,205 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA574C3-CD54-44A7-8A00-D1CB8315B9A2}">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="58" style="36" customWidth="1"/>
+    <col min="19" max="19" width="17.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="93">
+        <f>'[1]Configuración Apuestas'!D10</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="94"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="71"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="95"/>
+      <c r="S4" s="96"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1701,7 +1901,7 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1716,15 +1916,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1934,7 @@
       <c r="C1" s="52"/>
       <c r="D1" s="53"/>
     </row>
-    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1744,7 +1944,7 @@
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
@@ -1752,7 +1952,7 @@
       <c r="C3" s="58"/>
       <c r="D3" s="59"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1766,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
@@ -1780,7 +1980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61"/>
       <c r="B6" s="62"/>
       <c r="C6" s="37" t="s">
@@ -1788,7 +1988,7 @@
       </c>
       <c r="D6" s="62"/>
     </row>
-    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
       <c r="B7" s="62"/>
       <c r="C7" s="37" t="s">
@@ -1796,7 +1996,7 @@
       </c>
       <c r="D7" s="62"/>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>6</v>
       </c>
@@ -1810,7 +2010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60"/>
       <c r="B9" s="60"/>
       <c r="C9" s="38" t="s">
@@ -1818,7 +2018,7 @@
       </c>
       <c r="D9" s="60"/>
     </row>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60"/>
       <c r="B10" s="60"/>
       <c r="C10" s="38" t="s">
@@ -1826,7 +2026,7 @@
       </c>
       <c r="D10" s="60"/>
     </row>
-    <row r="11" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>6</v>
       </c>
@@ -1881,22 +2081,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450F8E16-67C6-432D-A5AA-BF67F960EE18}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="18"/>
+    <col min="7" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -1909,7 +2109,7 @@
       <c r="E1" s="63"/>
       <c r="F1" s="64"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
@@ -1922,7 +2122,7 @@
       <c r="E2" s="65"/>
       <c r="F2" s="66"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -1935,7 +2135,7 @@
       <c r="E3" s="67"/>
       <c r="F3" s="68"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>40</v>
       </c>
@@ -1945,7 +2145,7 @@
       <c r="E4" s="70"/>
       <c r="F4" s="71"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>41</v>
       </c>
@@ -1963,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
@@ -1975,7 +2175,7 @@
       <c r="E6" s="72"/>
       <c r="F6" s="73"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
@@ -1991,7 +2191,7 @@
       </c>
       <c r="F7" s="73"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>50</v>
       </c>
@@ -2012,7 +2212,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
@@ -2064,21 +2264,21 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="18"/>
+    <col min="7" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -2091,7 +2291,7 @@
       <c r="E1" s="63"/>
       <c r="F1" s="64"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
@@ -2104,7 +2304,7 @@
       <c r="E2" s="65"/>
       <c r="F2" s="66"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -2117,7 +2317,7 @@
       <c r="E3" s="67"/>
       <c r="F3" s="68"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>40</v>
       </c>
@@ -2127,7 +2327,7 @@
       <c r="E4" s="70"/>
       <c r="F4" s="71"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>41</v>
       </c>
@@ -2145,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
@@ -2157,7 +2357,7 @@
       <c r="E6" s="72"/>
       <c r="F6" s="73"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
@@ -2173,7 +2373,7 @@
       </c>
       <c r="F7" s="73"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>30</v>
       </c>
@@ -2194,7 +2394,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>31</v>
       </c>
@@ -2245,22 +2445,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C088BE7-88A8-46E0-AF18-6F40B3F602F8}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="18"/>
+    <col min="7" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -2273,7 +2473,7 @@
       <c r="E1" s="63"/>
       <c r="F1" s="64"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
@@ -2286,7 +2486,7 @@
       <c r="E2" s="65"/>
       <c r="F2" s="66"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -2299,7 +2499,7 @@
       <c r="E3" s="67"/>
       <c r="F3" s="68"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>40</v>
       </c>
@@ -2309,7 +2509,7 @@
       <c r="E4" s="70"/>
       <c r="F4" s="71"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>41</v>
       </c>
@@ -2327,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
@@ -2339,7 +2539,7 @@
       <c r="E6" s="72"/>
       <c r="F6" s="73"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
@@ -2355,7 +2555,7 @@
       </c>
       <c r="F7" s="73"/>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>29</v>
       </c>
@@ -2376,7 +2576,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>59</v>
       </c>
@@ -2427,61 +2627,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3888799-E6A1-4FAB-A09B-AF9FE652AF52}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="58" style="36" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="18"/>
+    <col min="19" max="19" width="17.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="83" t="str">
+      <c r="B1" s="74" t="str">
         <f>Reservas!D8</f>
         <v>Reserva-0001</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="84"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -2502,36 +2702,36 @@
       <c r="R2" s="70"/>
       <c r="S2" s="71"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="87" t="s">
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="89" t="s">
+      <c r="S3" s="80" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>38</v>
       </c>
@@ -2583,14 +2783,14 @@
       <c r="Q4" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="88"/>
-      <c r="S4" s="90"/>
-    </row>
-    <row r="5" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+      <c r="R4" s="79"/>
+      <c r="S4" s="81"/>
+    </row>
+    <row r="5" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="84" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -2629,13 +2829,13 @@
       <c r="R5" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="S5" s="80" t="s">
+      <c r="S5" s="88" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="76"/>
+    <row r="6" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="82"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="42" t="s">
         <v>83</v>
       </c>
@@ -2672,11 +2872,11 @@
       <c r="R6" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="S6" s="81"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
-      <c r="B7" s="76"/>
+      <c r="S6" s="89"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="82"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="42" t="s">
         <v>88</v>
       </c>
@@ -2697,11 +2897,11 @@
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="43"/>
-      <c r="S7" s="81"/>
-    </row>
-    <row r="8" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
-      <c r="B8" s="77" t="s">
+      <c r="S7" s="89"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="82"/>
+      <c r="B8" s="85" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="44" t="s">
@@ -2740,11 +2940,11 @@
       <c r="R8" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="S8" s="81"/>
-    </row>
-    <row r="9" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="77"/>
+      <c r="S8" s="89"/>
+    </row>
+    <row r="9" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="82"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="44" t="s">
         <v>83</v>
       </c>
@@ -2781,11 +2981,11 @@
       <c r="R9" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="S9" s="81"/>
-    </row>
-    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
-      <c r="B10" s="77"/>
+      <c r="S9" s="89"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="82"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="44" t="s">
         <v>89</v>
       </c>
@@ -2806,11 +3006,11 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
-      <c r="S10" s="81"/>
-    </row>
-    <row r="11" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="78" t="s">
+      <c r="S10" s="89"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="82"/>
+      <c r="B11" s="86" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="46" t="s">
@@ -2849,11 +3049,11 @@
       <c r="R11" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="S11" s="81"/>
-    </row>
-    <row r="12" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="79"/>
+      <c r="S11" s="89"/>
+    </row>
+    <row r="12" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="83"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="48" t="s">
         <v>83</v>
       </c>
@@ -2890,21 +3090,21 @@
       <c r="R12" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="S12" s="82"/>
+      <c r="S12" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="S5:S12"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="S5:S12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2914,61 +3114,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC2EBB7-5669-4BC7-8C4D-6FF94FADDE33}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="77" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="18" customWidth="1"/>
     <col min="2" max="2" width="21" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="58" style="36" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="18"/>
+    <col min="19" max="19" width="17.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="83" t="str">
+      <c r="B1" s="74" t="str">
         <f>Reservas!D9</f>
         <v>Reserva-0002</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="84"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -2989,36 +3189,36 @@
       <c r="R2" s="70"/>
       <c r="S2" s="71"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="87" t="s">
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="89" t="s">
+      <c r="S3" s="80" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>38</v>
       </c>
@@ -3070,14 +3270,14 @@
       <c r="Q4" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="88"/>
-      <c r="S4" s="90"/>
-    </row>
-    <row r="5" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="79"/>
+      <c r="S4" s="81"/>
+    </row>
+    <row r="5" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="84" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -3116,13 +3316,13 @@
       <c r="R5" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="S5" s="80" t="s">
+      <c r="S5" s="88" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="91"/>
-      <c r="B6" s="76"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="42" t="s">
         <v>83</v>
       </c>
@@ -3159,11 +3359,11 @@
       <c r="R6" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="S6" s="81"/>
-    </row>
-    <row r="7" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="89"/>
+    </row>
+    <row r="7" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="91"/>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="85" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -3202,11 +3402,11 @@
       <c r="R7" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="S7" s="81"/>
-    </row>
-    <row r="8" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S7" s="89"/>
+    </row>
+    <row r="8" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="91"/>
-      <c r="B8" s="77"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="44" t="s">
         <v>83</v>
       </c>
@@ -3243,11 +3443,11 @@
       <c r="R8" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="S8" s="81"/>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="89"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="91"/>
-      <c r="B9" s="77"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="44" t="s">
         <v>101</v>
       </c>
@@ -3268,11 +3468,11 @@
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="45"/>
-      <c r="S9" s="81"/>
-    </row>
-    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="89"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91"/>
-      <c r="B10" s="77"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="44" t="s">
         <v>102</v>
       </c>
@@ -3293,11 +3493,11 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
-      <c r="S10" s="81"/>
-    </row>
-    <row r="11" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="89"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="91"/>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="86" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="46" t="s">
@@ -3336,11 +3536,11 @@
       <c r="R11" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="S11" s="81"/>
-    </row>
-    <row r="12" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="89"/>
+    </row>
+    <row r="12" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="92"/>
-      <c r="B12" s="79"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="48" t="s">
         <v>83</v>
       </c>
@@ -3377,88 +3577,86 @@
       <c r="R12" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="S12" s="82"/>
+      <c r="S12" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="S5:S12"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="J3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="S5:S12"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA574C3-CD54-44A7-8A00-D1CB8315B9A2}">
-  <dimension ref="A1:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B91709D-862F-47AE-9690-135FDFD3E8F1}">
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="58" style="36" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="18"/>
+    <col min="19" max="19" width="17.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="93">
-        <f>'[1]Configuración Apuestas'!D10</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="94"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>64</v>
-      </c>
+      <c r="B1" s="74" t="str">
+        <f>Reservas!D8</f>
+        <v>Reserva-0001</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="69"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -3478,113 +3676,403 @@
       <c r="R2" s="70"/>
       <c r="S2" s="71"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="87" t="s">
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="89" t="s">
+      <c r="S3" s="80" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="95"/>
-      <c r="S4" s="96"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="35"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="81"/>
+    </row>
+    <row r="5" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="42">
+        <v>32</v>
+      </c>
+      <c r="F5" s="42">
+        <v>32</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="42">
+        <v>32</v>
+      </c>
+      <c r="N5" s="42">
+        <v>32</v>
+      </c>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="82"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="42">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42">
+        <v>50</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="42">
+        <v>1</v>
+      </c>
+      <c r="N6" s="42">
+        <v>50</v>
+      </c>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" s="89"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="82"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="89"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="82"/>
+      <c r="B8" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="44">
+        <v>32</v>
+      </c>
+      <c r="F8" s="44">
+        <v>32</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="44">
+        <v>32</v>
+      </c>
+      <c r="N8" s="44">
+        <v>32</v>
+      </c>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="S8" s="89"/>
+    </row>
+    <row r="9" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="82"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="44">
+        <v>1</v>
+      </c>
+      <c r="F9" s="44">
+        <v>50</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="44">
+        <v>1</v>
+      </c>
+      <c r="N9" s="44">
+        <v>50</v>
+      </c>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="S9" s="89"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="82"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="89"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="82"/>
+      <c r="B11" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="46">
+        <v>32</v>
+      </c>
+      <c r="F11" s="46">
+        <v>32</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="46">
+        <v>32</v>
+      </c>
+      <c r="N11" s="46">
+        <v>32</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="89"/>
+    </row>
+    <row r="12" spans="1:19" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="83"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="48">
+        <v>1</v>
+      </c>
+      <c r="F12" s="48">
+        <v>50</v>
+      </c>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="48">
+        <v>1</v>
+      </c>
+      <c r="N12" s="48">
+        <v>50</v>
+      </c>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="S12" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="S5:S12"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:I3"/>
